--- a/src/Tests/WB.Tests.Unit.Designer/BoundedContexts/Designer/TranslationServiceTests/testTranslationsWithHtml.xlsx
+++ b/src/Tests/WB.Tests.Unit.Designer/BoundedContexts/Designer/TranslationServiceTests/testTranslationsWithHtml.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\surveysolutions\src\Tests\WB.Tests.Unit.Designer\BoundedContexts\Designer\TranslationServiceTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\surveysolutions\src\Tests\WB.Tests.Unit.Designer\BoundedContexts\Designer\TranslationServiceTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
     <sheet name="@@_question" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Type</t>
   </si>
@@ -79,12 +79,18 @@
   </si>
   <si>
     <t>&lt;h3&gt;Текст секции&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>s1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,95 +436,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -529,53 +553,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
